--- a/backend-python/general_document/订单模板.xlsx
+++ b/backend-python/general_document/订单模板.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ZHEJIANG JIANCHENG SHOES GROUP CO.,LTD</t>
   </si>
@@ -35,7 +35,7 @@
     <t>NO.8 ZHEN NAN ROAD,WUTIAN STREET OUHAI  DISTRICT  WENZHOU  CITY</t>
   </si>
   <si>
-    <t xml:space="preserve"> TEL:+86  13968895984    0577  86723156              E-mail:greeny@clowseshoes.com</t>
+    <t xml:space="preserve"> TEL:+86  18758717785    0577  86723156              E-mail:hank@clowseshoes.com</t>
   </si>
   <si>
     <t>PROFORMA INVOICE</t>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>COLOUR</t>
+  </si>
+  <si>
+    <t>ASSORTMENT</t>
   </si>
   <si>
     <t>配码</t>
@@ -1066,7 +1069,7 @@
     <xf numFmtId="0" fontId="43" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1095,9 +1098,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1108,11 +1117,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1152,9 +1157,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1193,6 +1195,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="94">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1779,10 +1784,10 @@
     <outlinePr showOutlineSymbols="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AB23"/>
+  <dimension ref="A1:AC23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="15"/>
@@ -1791,18 +1796,19 @@
     <col min="2" max="2" width="12.875" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.125" style="6" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="5" customWidth="1"/>
-    <col min="5" max="17" width="5.91666666666667" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.75" style="5" customWidth="1"/>
-    <col min="19" max="19" width="8.95833333333333" style="5" customWidth="1"/>
-    <col min="20" max="20" width="8" style="5" customWidth="1"/>
-    <col min="21" max="21" width="12.5" style="5" customWidth="1"/>
-    <col min="22" max="22" width="15.5" style="5" customWidth="1"/>
-    <col min="23" max="23" width="22.3583333333333" style="5" customWidth="1"/>
-    <col min="24" max="28" width="8" style="5" customWidth="1"/>
-    <col min="29" max="16384" width="8" style="5"/>
+    <col min="5" max="5" width="13" style="5" customWidth="1"/>
+    <col min="6" max="18" width="5.91666666666667" style="5" customWidth="1"/>
+    <col min="19" max="19" width="8.75" style="5" customWidth="1"/>
+    <col min="20" max="20" width="8.95833333333333" style="5" customWidth="1"/>
+    <col min="21" max="21" width="8" style="5" customWidth="1"/>
+    <col min="22" max="22" width="12.5" style="5" customWidth="1"/>
+    <col min="23" max="23" width="15.5" style="5" customWidth="1"/>
+    <col min="24" max="24" width="22.3583333333333" style="5" customWidth="1"/>
+    <col min="25" max="29" width="8" style="5" customWidth="1"/>
+    <col min="30" max="16384" width="8" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="30.95" customHeight="1" spans="1:23">
+    <row r="1" s="1" customFormat="1" ht="30.95" customHeight="1" spans="1:24">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1828,8 +1834,9 @@
       <c r="U1" s="7"/>
       <c r="V1" s="7"/>
       <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:28">
+    <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:29">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1855,9 +1862,10 @@
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
       <c r="W2" s="8"/>
-      <c r="AB2" s="49"/>
+      <c r="X2" s="8"/>
+      <c r="AC2" s="49"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="21" customHeight="1" spans="1:23">
+    <row r="3" s="1" customFormat="1" ht="21" customHeight="1" spans="1:24">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -1883,8 +1891,9 @@
       <c r="U3" s="8"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:28">
+    <row r="4" s="2" customFormat="1" spans="1:29">
       <c r="A4" s="9" t="s">
         <v>3</v>
       </c>
@@ -1910,13 +1919,14 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
       <c r="W4" s="9"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="50"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="50"/>
+      <c r="AC4" s="50"/>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:25">
+    <row r="5" s="2" customFormat="1" spans="1:26">
       <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
@@ -1929,18 +1939,19 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="33"/>
-      <c r="N5" s="33"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
-      <c r="R5" s="33"/>
-      <c r="U5" s="36"/>
-      <c r="X5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="V5" s="36"/>
       <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:21">
+    <row r="6" s="2" customFormat="1" spans="1:22">
       <c r="A6" s="5"/>
       <c r="C6" s="11"/>
       <c r="D6" s="5"/>
@@ -1958,14 +1969,15 @@
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
-      <c r="T6" s="33" t="s">
+      <c r="S6" s="5"/>
+      <c r="U6" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="V6" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:23">
+    <row r="7" s="2" customFormat="1" ht="21.95" customHeight="1" spans="1:24">
       <c r="A7" s="12" t="s">
         <v>7</v>
       </c>
@@ -1981,90 +1993,95 @@
       <c r="E7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="37" t="s">
+      <c r="F7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S7" s="38" t="s">
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="37" t="s">
         <v>13</v>
       </c>
       <c r="T7" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="39" t="s">
+      <c r="U7" s="38" t="s">
         <v>15</v>
       </c>
       <c r="V7" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="W7" s="40" t="s">
+      <c r="W7" s="39" t="s">
         <v>17</v>
       </c>
+      <c r="X7" s="40" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:23">
+    <row r="8" s="3" customFormat="1" ht="21.95" customHeight="1" spans="1:24">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="38"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
       <c r="T8" s="38"/>
-      <c r="U8" s="39"/>
+      <c r="U8" s="38"/>
       <c r="V8" s="39"/>
-      <c r="W8" s="40"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="40"/>
     </row>
-    <row r="9" s="3" customFormat="1" ht="100" customHeight="1" spans="1:23">
-      <c r="A9" s="17"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+    <row r="9" s="3" customFormat="1" ht="100" customHeight="1" spans="1:24">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
       <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="41"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="42">
+      <c r="U9" s="41"/>
+      <c r="V9" s="42">
         <v>12</v>
       </c>
-      <c r="V9" s="43"/>
-      <c r="W9" s="44"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="44"/>
     </row>
-    <row r="10" s="4" customFormat="1" spans="1:23">
+    <row r="10" s="4" customFormat="1" spans="1:24">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
@@ -2088,160 +2105,168 @@
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
+      <c r="X10"/>
     </row>
-    <row r="11" ht="24" customHeight="1" spans="1:23">
-      <c r="A11" s="22"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="22"/>
+    <row r="11" ht="24" customHeight="1" spans="1:24">
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
     </row>
-    <row r="12" spans="1:28">
-      <c r="A12" s="23"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12"/>
+    <row r="12" spans="1:29">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
       <c r="V12"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-      <c r="AB12" s="23"/>
+      <c r="W12"/>
+      <c r="X12" s="45"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
     </row>
-    <row r="13" ht="21.75" customHeight="1" spans="1:26">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="47"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="47"/>
+    <row r="13" ht="21.75" customHeight="1" spans="1:27">
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="46"/>
+      <c r="W13" s="47"/>
+      <c r="X13" s="48"/>
       <c r="Y13" s="47"/>
-      <c r="Z13" s="23"/>
+      <c r="Z13" s="47"/>
+      <c r="AA13" s="24"/>
     </row>
-    <row r="14" ht="21.75" customHeight="1" spans="1:6">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
+    <row r="14" ht="21.75" customHeight="1" spans="1:7">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
     </row>
     <row r="15" ht="21.75" customHeight="1"/>
     <row r="16" ht="21.75" customHeight="1" spans="1:3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
     </row>
-    <row r="17" ht="21.75" customHeight="1" spans="1:19">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="S17" s="46"/>
+    <row r="17" ht="21.75" customHeight="1" spans="1:20">
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="T17" s="46"/>
     </row>
     <row r="18" ht="21.75" customHeight="1"/>
-    <row r="19" ht="21.75" customHeight="1" spans="1:6">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
+    <row r="19" ht="21.75" customHeight="1" spans="1:7">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
     </row>
     <row r="20" ht="31" customHeight="1" spans="1:3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
     </row>
     <row r="21" ht="21.75" customHeight="1" spans="3:3">
       <c r="C21" s="5"/>
     </row>
-    <row r="22" ht="21.75" customHeight="1" spans="1:10">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+    <row r="22" ht="21.75" customHeight="1" spans="1:11">
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="A2:W2"/>
-    <mergeCell ref="A3:W3"/>
-    <mergeCell ref="A4:W4"/>
-    <mergeCell ref="E7:Q7"/>
+  <mergeCells count="16">
+    <mergeCell ref="A1:X1"/>
+    <mergeCell ref="A2:X2"/>
+    <mergeCell ref="A3:X3"/>
+    <mergeCell ref="A4:X4"/>
+    <mergeCell ref="F7:R7"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="S7:S8"/>
     <mergeCell ref="T7:T8"/>
     <mergeCell ref="U7:U8"/>
     <mergeCell ref="V7:V8"/>
     <mergeCell ref="W7:W8"/>
+    <mergeCell ref="X7:X8"/>
   </mergeCells>
   <pageMargins left="0.12" right="0.12" top="0.12" bottom="0.12" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape"/>
